--- a/example/example-0001_dra_metadata.xlsx
+++ b/example/example-0001_dra_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\sub2xml\submission-excel2xml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\submission-excel2xml\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809AAA87-4002-4F3E-9CDC-3B53CDD54138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A282AF65-5442-424A-97FE-1F16364C3E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
@@ -381,9 +381,9 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>Enter analysis step(s). Describe a step in format "analysis name:program name:program version". List steps by delimiting steps with "," (comma) in the order of actual analysis.
+          <t>Enter analysis step(s). Describe a step in format "analysis name:program name:program version". List steps by delimiting steps with ";" (semicolon) in the order of actual analysis.
 Examples:
-"alignment:Burrows-Wheller-Aligner:0.7.10,trimming:fastx-clipper:1.1.2-318"</t>
+"alignment:Burrows-Wheller-Aligner:0.7.10;trimming:fastx-clipper:1.1.2-318"</t>
         </r>
         <r>
           <rPr>
@@ -409,9 +409,9 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>Enter custom attribute(s). Enter an attribute in format "attribute name:value". List attributes by delimiting "," (comma).
+          <t>Enter custom attribute(s). Enter an attribute in format "attribute name:value". List attributes by delimiting ";" (semicolon).
 Examples:
-"metagenome_assembly:binned,completeness:90;contamination:0"</t>
+"metagenome_assembly:binned;completeness:90;contamination:0"</t>
         </r>
       </text>
     </comment>
@@ -1191,11 +1191,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2023-11-21 Bioinformation and DDBJ Center</t>
+    <t>2023-12-05 Bioinformation and DDBJ Center</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>v1.7</t>
+    <t>v1.8</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1670,9 +1670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
@@ -1796,7 +1794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -2034,9 +2032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C5"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>

--- a/example/example-0001_dra_metadata.xlsx
+++ b/example/example-0001_dra_metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\submission-excel2xml\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\1221\submission-excel2xml\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A282AF65-5442-424A-97FE-1F16364C3E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A4CDDD-16B3-4259-8134-8BF1A923CEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <author>児玉悠一</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{E058CCB4-1AB3-4F73-9F06-AEEA1FD9B2F4}">
       <text>
         <r>
           <rPr>
@@ -70,21 +70,6 @@
           <t>YYYY-MM-DD (e.g, 2024-01-01)
 For immediate release, 
 enter date of submission.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>Enter a BioProject accession (e.g., PRJDB7252) for this submission.</t>
         </r>
       </text>
     </comment>
@@ -420,7 +405,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="245">
   <si>
     <t>Library Source</t>
   </si>
@@ -794,14 +779,6 @@
     <t>Ion Torrent S5 XL</t>
   </si>
   <si>
-    <t>Lab Name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Center Name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Hold Until</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -888,10 +865,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>BioProject accession</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>NOMe-Seq</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -953,15 +926,6 @@
   <si>
     <t>paired</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NIG</t>
-  </si>
-  <si>
-    <t>Bioinformation and DDBJ Center</t>
-  </si>
-  <si>
-    <t>PRJDB7252</t>
   </si>
   <si>
     <t>Hanako Mishima</t>
@@ -1191,11 +1155,19 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2023-12-05 Bioinformation and DDBJ Center</t>
+    <t>2023-12-21 Bioinformation and DDBJ Center</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>v1.8</t>
+    <t>v1.9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Submitting organization</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>National Institute of Genetics</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1680,27 +1652,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="52.8">
       <c r="A4" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1713,74 +1685,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>152</v>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>169</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45292</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:2">
       <c r="B7"/>
     </row>
   </sheetData>
@@ -1817,7 +1773,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>8</v>
@@ -1844,24 +1800,24 @@
         <v>12</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -1873,7 +1829,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>58</v>
@@ -1884,16 +1840,16 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>3</v>
@@ -1905,7 +1861,7 @@
         <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>58</v>
@@ -1916,16 +1872,16 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>3</v>
@@ -1937,30 +1893,30 @@
         <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>52</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>3</v>
@@ -1972,16 +1928,16 @@
         <v>17</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2044,7 +2000,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>8</v>
@@ -2055,46 +2011,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2126,7 +2082,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>6</v>
@@ -2137,86 +2093,86 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="B6" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -28602,22 +28558,22 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="14" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>5</v>
@@ -28629,13 +28585,13 @@
         <v>7</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -28795,16 +28751,16 @@
         <v>12</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -28824,18 +28780,18 @@
         <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>21</v>
@@ -28847,13 +28803,13 @@
         <v>23</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>24</v>
@@ -28864,7 +28820,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>26</v>
@@ -28877,7 +28833,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>19</v>
@@ -28885,7 +28841,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>29</v>
@@ -28901,10 +28857,10 @@
         <v>24</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -28926,7 +28882,7 @@
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="16" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -28944,11 +28900,11 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="16" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -28956,7 +28912,7 @@
         <v>32</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>105</v>
@@ -28967,15 +28923,15 @@
       <c r="E8" s="5"/>
       <c r="G8" s="18"/>
       <c r="H8" s="16" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>64</v>
@@ -28986,7 +28942,7 @@
       <c r="E9" s="5"/>
       <c r="G9" s="18"/>
       <c r="H9" s="16" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -29006,7 +28962,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="18"/>
       <c r="H10" s="16" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -29024,7 +28980,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -29042,7 +28998,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -29096,7 +29052,7 @@
     <row r="16" spans="1:8">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>45</v>
@@ -29144,7 +29100,7 @@
     <row r="19" spans="1:8">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>54</v>
@@ -29160,7 +29116,7 @@
     <row r="20" spans="1:8">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>55</v>
@@ -29176,7 +29132,7 @@
     <row r="21" spans="1:8">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>57</v>
@@ -29192,13 +29148,13 @@
     <row r="22" spans="1:8">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -29208,7 +29164,7 @@
     <row r="23" spans="1:8">
       <c r="A23" s="5"/>
       <c r="B23" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>4</v>
@@ -29224,7 +29180,7 @@
     <row r="24" spans="1:8">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>67</v>
@@ -29246,7 +29202,7 @@
         <v>70</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -29262,7 +29218,7 @@
         <v>73</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -29278,7 +29234,7 @@
         <v>75</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -29288,7 +29244,7 @@
     <row r="28" spans="1:8">
       <c r="A28" s="5"/>
       <c r="B28" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>78</v>
@@ -29307,7 +29263,7 @@
         <v>77</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>68</v>
@@ -29351,7 +29307,7 @@
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>76</v>
@@ -29421,7 +29377,7 @@
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>118</v>
@@ -29462,7 +29418,7 @@
       <c r="B40" s="6"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -29471,22 +29427,22 @@
     </row>
     <row r="41" spans="1:8">
       <c r="D41" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="D42" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="D43" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="D44" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -29506,7 +29462,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="D48" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="4:4">
@@ -29531,17 +29487,17 @@
     </row>
     <row r="53" spans="4:4">
       <c r="D53" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="4:4">

--- a/example/example-0001_dra_metadata.xlsx
+++ b/example/example-0001_dra_metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\1221\submission-excel2xml\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuichi\Desktop\submission-excel2xml\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A4CDDD-16B3-4259-8134-8BF1A923CEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF12DF6E-7AFF-4908-986C-E81451ED01F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
@@ -70,6 +70,21 @@
           <t>YYYY-MM-DD (e.g, 2024-01-01)
 For immediate release, 
 enter date of submission.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{DF8CFB56-CF4A-4EFA-BFF4-5D70C2EF9433}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Enter a BioProject accession (e.g., PRJDB7252) for this submission.</t>
         </r>
       </text>
     </comment>
@@ -405,7 +420,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="247">
   <si>
     <t>Library Source</t>
   </si>
@@ -1170,6 +1185,13 @@
     <t>National Institute of Genetics</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>BioProject accession</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PRJDB7252</t>
+  </si>
 </sst>
 </file>
 
@@ -1644,10 +1666,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="143.21875" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="143.1796875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1660,7 +1682,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="52.8">
+    <row r="4" spans="1:1" ht="50">
       <c r="A4" s="3" t="s">
         <v>239</v>
       </c>
@@ -1689,30 +1711,36 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="2"/>
+    <col min="2" max="2" width="25.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
         <v>243</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>244</v>
       </c>
       <c r="B2" s="1">
         <v>45292</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C2" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="11" t="s">
         <v>125</v>
       </c>
@@ -1720,7 +1748,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>169</v>
       </c>
@@ -1728,7 +1756,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>171</v>
       </c>
@@ -1736,7 +1764,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="B7"/>
     </row>
   </sheetData>
@@ -1755,20 +1783,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="56.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="25.90625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="56.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1990,12 +2018,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="24.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.08984375" style="2" customWidth="1"/>
     <col min="2" max="2" width="43" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="29.90625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2069,12 +2097,12 @@
       <selection activeCell="A2" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -28540,20 +28568,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.44140625" customWidth="1"/>
-    <col min="7" max="7" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.453125" customWidth="1"/>
+    <col min="7" max="7" width="33.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="70.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.08984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="81.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="59.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="81.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="59.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -28725,19 +28753,19 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="32.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="13">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>

--- a/example/example-0001_dra_metadata.xlsx
+++ b/example/example-0001_dra_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuichi\Desktop\submission-excel2xml\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanizawa/projects/ddbj/submission-excel2xml/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF12DF6E-7AFF-4908-986C-E81451ED01F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E98E83-04FB-2A4D-89F1-B58126DF4C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
@@ -1666,10 +1666,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="143.1796875" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.90625" style="2"/>
+    <col min="1" max="1" width="143.1640625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1682,7 +1682,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="50">
+    <row r="4" spans="1:1" ht="56">
       <c r="A4" s="3" t="s">
         <v>239</v>
       </c>
@@ -1709,13 +1709,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.6328125" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6328125" style="2"/>
+    <col min="2" max="2" width="25.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1734,7 +1736,7 @@
         <v>244</v>
       </c>
       <c r="B2" s="1">
-        <v>45292</v>
+        <v>46023</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>246</v>
@@ -1783,20 +1785,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="25.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="56.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.90625" style="2"/>
+    <col min="1" max="1" width="25.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="56.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2018,12 +2020,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="24.08984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="43" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.90625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.90625" style="2"/>
+    <col min="3" max="3" width="29.83203125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2097,12 +2099,12 @@
       <selection activeCell="A2" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="24.6328125" customWidth="1"/>
-    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -28568,20 +28570,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="113.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.453125" customWidth="1"/>
-    <col min="7" max="7" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
+    <col min="7" max="7" width="33.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="70.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="81.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="59.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="81.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="59.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -28753,19 +28755,19 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="32.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.90625" style="2"/>
+    <col min="1" max="1" width="32.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13">
+    <row r="1" spans="1:8">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -28791,7 +28793,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="14">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -28817,7 +28819,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="14">
       <c r="A3" s="5" t="s">
         <v>130</v>
       </c>
@@ -28843,7 +28845,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="14">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -28867,7 +28869,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="14">
       <c r="A5" s="5" t="s">
         <v>132</v>
       </c>
@@ -28891,7 +28893,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="14">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -28913,7 +28915,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="14">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
@@ -28935,7 +28937,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="14">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>

--- a/example/example-0001_dra_metadata.xlsx
+++ b/example/example-0001_dra_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanizawa/projects/ddbj/submission-excel2xml/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\20240213\submission-excel2xml\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E98E83-04FB-2A4D-89F1-B58126DF4C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83C4276-066F-4127-A14E-7313F071FE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
@@ -420,7 +420,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="263">
   <si>
     <t>Library Source</t>
   </si>
@@ -1170,14 +1170,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2023-12-21 Bioinformation and DDBJ Center</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>v1.9</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Submitting organization</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1191,6 +1183,62 @@
   </si>
   <si>
     <t>PRJDB7252</t>
+  </si>
+  <si>
+    <t>v2.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2024-02-14 Bioinformation and DDBJ Center</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Illumina HiSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G400 FAST</t>
+  </si>
+  <si>
+    <t>BGISEQ-50</t>
+  </si>
+  <si>
+    <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Onso</t>
+  </si>
+  <si>
+    <t>Revio</t>
+  </si>
+  <si>
+    <t>Ion Torrent Genexus</t>
+  </si>
+  <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Element AVITI</t>
+  </si>
+  <si>
+    <t>UG 100</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
+  </si>
+  <si>
+    <t>Sentosa SQ301</t>
   </si>
 </sst>
 </file>
@@ -1666,23 +1714,23 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="143.1640625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="143.109375" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="56">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="52.8">
       <c r="A4" s="3" t="s">
         <v>239</v>
       </c>
@@ -1709,37 +1757,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="18.6640625" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>124</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B2" s="1">
         <v>46023</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1785,20 +1831,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="56.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="56.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="2"/>
+    <col min="12" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1894,7 +1940,7 @@
         <v>182</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>58</v>
+        <v>251</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>15</v>
@@ -1961,7 +2007,7 @@
         <v>194</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>188</v>
@@ -2002,9 +2048,9 @@
           </x14:formula1>
           <xm:sqref>G2:G3000</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3D1F9A0B-2ADE-4FE8-91BF-DADC9BF0CB6A}">
           <x14:formula1>
-            <xm:f>Admin!$D$2:$D$66</xm:f>
+            <xm:f>Admin!$D$2:$D$82</xm:f>
           </x14:formula1>
           <xm:sqref>I2:I3000</xm:sqref>
         </x14:dataValidation>
@@ -2020,12 +2066,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="43" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="2"/>
+    <col min="3" max="3" width="29.77734375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2099,7 +2145,7 @@
       <selection activeCell="A2" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
@@ -28570,20 +28616,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="113.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5" customWidth="1"/>
-    <col min="7" max="7" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" customWidth="1"/>
+    <col min="7" max="7" width="33.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="70.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="81.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="59.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="81.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="59.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -28749,22 +28795,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="32.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="2"/>
+    <col min="2" max="2" width="38.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -28793,7 +28839,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14">
+    <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -28804,7 +28850,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>15</v>
@@ -28819,7 +28865,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14">
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>130</v>
       </c>
@@ -28830,7 +28876,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>168</v>
@@ -28845,7 +28891,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14">
+    <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -28856,7 +28902,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
@@ -28869,7 +28915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14">
+    <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
         <v>132</v>
       </c>
@@ -28880,7 +28926,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
@@ -28893,7 +28939,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14">
+    <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -28904,7 +28950,7 @@
         <v>106</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
@@ -28915,7 +28961,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14">
+    <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
@@ -28926,7 +28972,7 @@
         <v>34</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
@@ -28937,7 +28983,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14">
+    <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -28948,7 +28994,7 @@
         <v>105</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E8" s="5"/>
       <c r="G8" s="18"/>
@@ -28967,7 +29013,7 @@
         <v>64</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E9" s="5"/>
       <c r="G9" s="18"/>
@@ -28986,7 +29032,7 @@
         <v>62</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -29004,7 +29050,7 @@
         <v>108</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -29022,7 +29068,7 @@
         <v>109</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -29040,7 +29086,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -29056,7 +29102,7 @@
         <v>107</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>49</v>
+        <v>247</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -29072,7 +29118,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -29088,7 +29134,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -29104,7 +29150,7 @@
         <v>48</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -29120,7 +29166,7 @@
         <v>51</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>61</v>
+        <v>248</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -29136,7 +29182,7 @@
         <v>54</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -29152,7 +29198,7 @@
         <v>55</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -29168,7 +29214,7 @@
         <v>57</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -29184,7 +29230,7 @@
         <v>59</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -29216,7 +29262,7 @@
         <v>67</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -29232,7 +29278,7 @@
         <v>70</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>153</v>
+        <v>249</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -29248,7 +29294,7 @@
         <v>73</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -29264,7 +29310,7 @@
         <v>75</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -29280,7 +29326,7 @@
         <v>78</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -29296,7 +29342,7 @@
         <v>146</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -29312,7 +29358,7 @@
         <v>81</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>71</v>
+        <v>250</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -29326,7 +29372,7 @@
         <v>83</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -29340,7 +29386,7 @@
         <v>150</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -29354,7 +29400,7 @@
         <v>85</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -29368,7 +29414,7 @@
         <v>87</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
@@ -29382,7 +29428,7 @@
         <v>111</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>84</v>
+        <v>251</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -29396,7 +29442,7 @@
         <v>110</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>117</v>
+        <v>252</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -29410,7 +29456,7 @@
         <v>147</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>118</v>
+        <v>253</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -29424,7 +29470,7 @@
         <v>38</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
@@ -29436,7 +29482,7 @@
       <c r="B39" s="6"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
@@ -29448,7 +29494,7 @@
       <c r="B40" s="6"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
@@ -29457,131 +29503,211 @@
     </row>
     <row r="41" spans="1:8">
       <c r="D41" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="D42" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="D43" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="D44" s="2" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="D45" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="D46" s="5" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="D47" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="D48" s="2" t="s">
-        <v>159</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="4:4">
       <c r="D50" s="2" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="2" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" s="2" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" s="2" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" s="2" t="s">
-        <v>161</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" s="2" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="4:4">
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="4:4">
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="4:4">
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>256</v>
       </c>
     </row>
     <row r="64" spans="4:4">
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" s="2" t="s">
-        <v>120</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4">
+      <c r="D67" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4">
+      <c r="D69" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="D70" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="D71" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="D72" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4">
+      <c r="D73" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="D74" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4">
+      <c r="D75" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="D76" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4">
+      <c r="D77" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4">
+      <c r="D78" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4">
+      <c r="D79" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4">
+      <c r="D80" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" s="2" t="s">
         <v>80</v>
       </c>
     </row>

--- a/example/example-0001_dra_metadata.xlsx
+++ b/example/example-0001_dra_metadata.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\20240213\submission-excel2xml\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\submission-excel2xml\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83C4276-066F-4127-A14E-7313F071FE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBBE3A3-C7CB-4129-B53C-B0A2DBB7066B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="9" r:id="rId1"/>
-    <sheet name="Submission" sheetId="8" r:id="rId2"/>
-    <sheet name="Experiment" sheetId="2" r:id="rId3"/>
-    <sheet name="Run" sheetId="3" r:id="rId4"/>
-    <sheet name="Run-file" sheetId="4" r:id="rId5"/>
-    <sheet name="Analysis" sheetId="10" r:id="rId6"/>
+    <sheet name="DRA_Submission" sheetId="8" r:id="rId2"/>
+    <sheet name="DRA_Experiment" sheetId="2" r:id="rId3"/>
+    <sheet name="DRA_Run" sheetId="3" r:id="rId4"/>
+    <sheet name="DRA_Run-file" sheetId="4" r:id="rId5"/>
+    <sheet name="DRA_Analysis" sheetId="10" r:id="rId6"/>
     <sheet name="Admin" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -1185,14 +1185,6 @@
     <t>PRJDB7252</t>
   </si>
   <si>
-    <t>v2.0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2024-02-14 Bioinformation and DDBJ Center</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Illumina HiSeq X</t>
   </si>
   <si>
@@ -1239,6 +1231,14 @@
   </si>
   <si>
     <t>Sentosa SQ301</t>
+  </si>
+  <si>
+    <t>2024-07-05 Bioinformation and DDBJ Center</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>v3.0</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1722,12 +1722,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="52.8">
@@ -1940,7 +1940,7 @@
         <v>182</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>15</v>
@@ -2141,9 +2141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D4631"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D7"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
@@ -28797,9 +28795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D82"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
@@ -29102,7 +29098,7 @@
         <v>107</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -29166,7 +29162,7 @@
         <v>51</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -29278,7 +29274,7 @@
         <v>70</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
@@ -29358,7 +29354,7 @@
         <v>81</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -29428,7 +29424,7 @@
         <v>111</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -29442,7 +29438,7 @@
         <v>110</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
@@ -29456,7 +29452,7 @@
         <v>147</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -29538,7 +29534,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="D48" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="4:4">
@@ -29608,42 +29604,42 @@
     </row>
     <row r="62" spans="4:4">
       <c r="D62" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="63" spans="4:4">
       <c r="D63" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="64" spans="4:4">
       <c r="D64" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="67" spans="4:4">
       <c r="D67" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="4:4">
       <c r="D69" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="70" spans="4:4">

--- a/example/example-0001_dra_metadata.xlsx
+++ b/example/example-0001_dra_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\github\submission-excel2xml\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBBE3A3-C7CB-4129-B53C-B0A2DBB7066B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F22A8E5-400A-4951-8CFC-ADD5E5DE04B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1233,11 +1233,11 @@
     <t>Sentosa SQ301</t>
   </si>
   <si>
-    <t>2024-07-05 Bioinformation and DDBJ Center</t>
+    <t>2024-10-23 Bioinformation and DDBJ Center</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>v3.0</t>
+    <t>v3.1</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1712,7 +1712,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
